--- a/public/instructivo/Instructivo_Carga_Data_Egresados_Pregrado.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Egresados_Pregrado.xlsx
@@ -488,127 +488,127 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
+    <t>Discapacidad del Alumno Egresado en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
+  </si>
+  <si>
+    <t>Identidad Étnica del Alumno Egresado en formato texto</t>
+  </si>
+  <si>
+    <t>Promedio del Semestre Actual de egreso del Alumno</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROMEDIO DEL SEMESTRE ACTUAL:
+El dato consignado de promedio del semestre actual se encuentra en blanco o cuenta con un formato no válido, tiene que ser un valor numérico entre 0 a 20. Corrija la Columna R, Fila n</t>
+  </si>
+  <si>
+    <t>Promedio Ponderado del Alumno Egresado</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROMEDIO PONDERADO:
+El dato consignado de promedioponderado se encuentra en blanco o cuenta con un formato no válido, tiene que ser un valor numérico entre 0 a 20. Corrija la Columna S, Fila n</t>
+  </si>
+  <si>
+    <t>¿ES EGRESADO DE OTRA CARRERA PROFESIONAL?</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES EGRESADO DE OTRA CARRERA PROFESIONAL?:
+El código de ¿Egresado de otra Carrera Profesional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna T, Fila n</t>
+  </si>
+  <si>
+    <t>OTRA CARRERA DE EGRESO</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Es egresado de otra carrera profesional</t>
+  </si>
+  <si>
+    <t>Biología Animal</t>
+  </si>
+  <si>
+    <t>Error en la Columna OTRA CARRERA DE EGRESO:
+Si ha ingresado que el Alumno es egresado de otra carrera profesional, ingrese el Nombre de la otra carrera profesional que el alumno finalizó, no puede dejar el registro en blanco. Corrija la Columna U, Fila n</t>
+  </si>
+  <si>
+    <t>¿ES TITULADO DE OTRA CARRERA PROFESIONAL?</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES TITULADO DE OTRA CARRERA PROFESIONAL?:
+El código de ¿Titulado de otra Carrera Profesional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna V, Fila n</t>
+  </si>
+  <si>
+    <t>OTRO TITULO PROFESIONAL DEL EGRESADO</t>
+  </si>
+  <si>
+    <t>Nombre en formato texto de la otra carrrera profesional de egreso del alumno, debe completarse solo si marcó si a Es egresado de otra carrera profesional (Valor 1)</t>
+  </si>
+  <si>
+    <t>Nombre en formato texto de la otra carrrera profesional en la que el alumno ya es titulado, debe completarse solo si marcó si a Es titulado de otra carrera profesional (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Es titulado de otra carrera profesional</t>
+  </si>
+  <si>
+    <t>Licenciado en Biología Animal</t>
+  </si>
+  <si>
+    <t>Error en la Columna OTRO TITULO PROFESIONAL DEL EGRESADO:
+Si ha ingresado que el Alumno es titulado de otra carrera profesional, ingrese el Nombre del título profesional que el alumno obtuvo, no puede dejar el registro en blanco. Corrija la Columna W, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna X, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna Y, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AA, Fila n</t>
+  </si>
+  <si>
+    <t>Correo Electrónico institucional del Alumno Egresado</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AB, Fila n</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL EGRESADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección de domicilio del Alumno Egresado en formato texto </t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL EGRESADO:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AC, Fila n</t>
+  </si>
+  <si>
+    <t>Correo Electrónico Personal del Alumno Egresado</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AD, Fila n</t>
+  </si>
+  <si>
+    <t>Teléfono del Alumno Egresado</t>
+  </si>
+  <si>
     <t>Indicador si el Alumno Egresado sufre o no discapacidad. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Discapacidad del Alumno Egresado en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
-  </si>
-  <si>
-    <t>Identidad Étnica del Alumno Egresado en formato texto</t>
-  </si>
-  <si>
-    <t>Promedio del Semestre Actual de egreso del Alumno</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROMEDIO DEL SEMESTRE ACTUAL:
-El dato consignado de promedio del semestre actual se encuentra en blanco o cuenta con un formato no válido, tiene que ser un valor numérico entre 0 a 20. Corrija la Columna R, Fila n</t>
-  </si>
-  <si>
-    <t>Promedio Ponderado del Alumno Egresado</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROMEDIO PONDERADO:
-El dato consignado de promedioponderado se encuentra en blanco o cuenta con un formato no válido, tiene que ser un valor numérico entre 0 a 20. Corrija la Columna S, Fila n</t>
-  </si>
-  <si>
-    <t>¿ES EGRESADO DE OTRA CARRERA PROFESIONAL?</t>
   </si>
   <si>
     <t>Indicador si el alumno ha egresado anteriormente de otra carrera profesional. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES EGRESADO DE OTRA CARRERA PROFESIONAL?:
-El código de ¿Egresado de otra Carrera Profesional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna T, Fila n</t>
-  </si>
-  <si>
-    <t>OTRA CARRERA DE EGRESO</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Es egresado de otra carrera profesional</t>
-  </si>
-  <si>
-    <t>Biología Animal</t>
-  </si>
-  <si>
-    <t>Error en la Columna OTRA CARRERA DE EGRESO:
-Si ha ingresado que el Alumno es egresado de otra carrera profesional, ingrese el Nombre de la otra carrera profesional que el alumno finalizó, no puede dejar el registro en blanco. Corrija la Columna U, Fila n</t>
-  </si>
-  <si>
-    <t>¿ES TITULADO DE OTRA CARRERA PROFESIONAL?</t>
   </si>
   <si>
     <t>Indicador si el alumno es titulado anteriormente de otra carrera profesional. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES TITULADO DE OTRA CARRERA PROFESIONAL?:
-El código de ¿Titulado de otra Carrera Profesional? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna V, Fila n</t>
-  </si>
-  <si>
-    <t>OTRO TITULO PROFESIONAL DEL EGRESADO</t>
-  </si>
-  <si>
-    <t>Nombre en formato texto de la otra carrrera profesional de egreso del alumno, debe completarse solo si marcó si a Es egresado de otra carrera profesional (Valor 1)</t>
-  </si>
-  <si>
-    <t>Nombre en formato texto de la otra carrrera profesional en la que el alumno ya es titulado, debe completarse solo si marcó si a Es titulado de otra carrera profesional (Valor 1)</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Es titulado de otra carrera profesional</t>
-  </si>
-  <si>
-    <t>Licenciado en Biología Animal</t>
-  </si>
-  <si>
-    <t>Error en la Columna OTRO TITULO PROFESIONAL DEL EGRESADO:
-Si ha ingresado que el Alumno es titulado de otra carrera profesional, ingrese el Nombre del título profesional que el alumno obtuvo, no puede dejar el registro en blanco. Corrija la Columna W, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna PAÍS DE PROCEDENCIA:
-El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna X, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
-El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna Y, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
-El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AA, Fila n</t>
-  </si>
-  <si>
-    <t>Correo Electrónico institucional del Alumno Egresado</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AB, Fila n</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL EGRESADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección de domicilio del Alumno Egresado en formato texto </t>
-  </si>
-  <si>
-    <t>Error en la Columna DIRECCIÓN DEL EGRESADO:
-El Valor ingresado se encuentran en blanco. Corrija la Columna AC, Fila n</t>
-  </si>
-  <si>
-    <t>Correo Electrónico Personal del Alumno Egresado</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AD, Fila n</t>
-  </si>
-  <si>
-    <t>Teléfono del Alumno Egresado</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>38</v>
@@ -1661,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>64</v>
@@ -1690,7 +1690,7 @@
         <v>111</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>24</v>
@@ -1719,7 +1719,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -1737,7 +1737,7 @@
         <v>53</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1748,7 +1748,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>24</v>
@@ -1766,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1774,10 +1774,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>38</v>
@@ -1795,7 +1795,7 @@
         <v>68</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -1803,13 +1803,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>65</v>
@@ -1818,13 +1818,13 @@
         <v>66</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1832,10 +1832,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>38</v>
@@ -1853,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -1861,13 +1861,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>65</v>
@@ -1876,13 +1876,13 @@
         <v>66</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>76</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1911,7 +1911,7 @@
         <v>80</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1940,7 +1940,7 @@
         <v>81</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1998,7 +1998,7 @@
         <v>83</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2009,7 +2009,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>24</v>
@@ -2027,7 +2027,7 @@
         <v>84</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2035,10 +2035,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>24</v>
@@ -2056,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2067,7 +2067,7 @@
         <v>122</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>24</v>
@@ -2085,7 +2085,7 @@
         <v>86</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>21</v>
